--- a/src/utils/sxsyzlzq/friends/yiersansiwu/zz_yiersansiwu_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/yiersansiwu/zz_yiersansiwu_level.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12345" windowHeight="10920" firstSheet="1"/>
+    <workbookView windowWidth="11520" windowHeight="11130" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="冬神" sheetId="10" r:id="rId1"/>
-    <sheet name="禅意" sheetId="6" r:id="rId2"/>
-    <sheet name="港口" sheetId="8" r:id="rId3"/>
+    <sheet name="港口" sheetId="8" r:id="rId2"/>
+    <sheet name="禅意" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>名称</t>
   </si>
@@ -40,18 +40,18 @@
     <t>卡等</t>
   </si>
   <si>
+    <t>骨爆</t>
+  </si>
+  <si>
     <t>噬魂骨妖</t>
   </si>
   <si>
+    <t>寒风草人</t>
+  </si>
+  <si>
     <t>极地狂信者</t>
   </si>
   <si>
-    <t>使徒征召</t>
-  </si>
-  <si>
-    <t>灵魂抽取</t>
-  </si>
-  <si>
     <t>骸骨前线</t>
   </si>
   <si>
@@ -67,15 +67,18 @@
     <t>寒彻骨</t>
   </si>
   <si>
+    <t>传记·荒芜之地</t>
+  </si>
+  <si>
     <t>寒盲刀客</t>
   </si>
   <si>
+    <t>冬幕骑士</t>
+  </si>
+  <si>
     <t>冰峰甲虫</t>
   </si>
   <si>
-    <t>冬幕骑士</t>
-  </si>
-  <si>
     <t>转化使徒</t>
   </si>
   <si>
@@ -103,18 +106,60 @@
     <t>冬神卡等：</t>
   </si>
   <si>
+    <t>心灵黑洞</t>
+  </si>
+  <si>
+    <t>黑夜突袭</t>
+  </si>
+  <si>
+    <t>酗酒醉汉</t>
+  </si>
+  <si>
+    <t>不法交易</t>
+  </si>
+  <si>
+    <t>海燕精卫</t>
+  </si>
+  <si>
+    <t>寒夜灯灵</t>
+  </si>
+  <si>
+    <t>黑金诈术师</t>
+  </si>
+  <si>
+    <t>海盗船长</t>
+  </si>
+  <si>
+    <t>奴役黑猿</t>
+  </si>
+  <si>
+    <t>花剑绅士·翔</t>
+  </si>
+  <si>
+    <t>海燕·鲍莉</t>
+  </si>
+  <si>
+    <t>赤影·艾希尔</t>
+  </si>
+  <si>
+    <t>钢之咆哮·布瑞恩</t>
+  </si>
+  <si>
+    <t>黑金三代目·梅森</t>
+  </si>
+  <si>
+    <t>港口卡等：</t>
+  </si>
+  <si>
     <t>雪庐草人</t>
   </si>
   <si>
-    <t>卜命道长</t>
+    <t>长耳庄巧姑</t>
   </si>
   <si>
     <t>苦行武僧</t>
   </si>
   <si>
-    <t>长耳庄巧姑</t>
-  </si>
-  <si>
     <t>黑松林货郎</t>
   </si>
   <si>
@@ -127,6 +172,12 @@
     <t>雪山飞狐</t>
   </si>
   <si>
+    <t>萌化术</t>
+  </si>
+  <si>
+    <t>渡船隐士</t>
+  </si>
+  <si>
     <t>万物之灵</t>
   </si>
   <si>
@@ -145,55 +196,7 @@
     <t>三熊阵</t>
   </si>
   <si>
-    <t>逍遥居士·铭</t>
-  </si>
-  <si>
     <t>禅意卡等：</t>
-  </si>
-  <si>
-    <t>心灵黑洞</t>
-  </si>
-  <si>
-    <t>黑夜突袭</t>
-  </si>
-  <si>
-    <t>酗酒醉汉</t>
-  </si>
-  <si>
-    <t>不法交易</t>
-  </si>
-  <si>
-    <t>海燕精卫</t>
-  </si>
-  <si>
-    <t>黑金诈术师</t>
-  </si>
-  <si>
-    <t>海盗船长</t>
-  </si>
-  <si>
-    <t>奴役黑猿</t>
-  </si>
-  <si>
-    <t>花剑绅士·翔</t>
-  </si>
-  <si>
-    <t>海燕·鲍莉</t>
-  </si>
-  <si>
-    <t>赤影·艾希尔</t>
-  </si>
-  <si>
-    <t>魔卡幻术师·梅基</t>
-  </si>
-  <si>
-    <t>钢之咆哮·布瑞恩</t>
-  </si>
-  <si>
-    <t>黑金三代目·梅森</t>
-  </si>
-  <si>
-    <t>港口卡等：</t>
   </si>
 </sst>
 </file>
@@ -1157,10 +1160,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1186,10 +1189,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1197,10 +1200,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1208,7 +1211,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>18</v>
@@ -1222,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1255,7 +1258,7 @@
       </c>
       <c r="C9" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>18.6</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -1267,7 +1270,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1278,7 +1281,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1286,10 +1289,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1297,10 +1300,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1311,7 +1314,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1322,13 +1325,19 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2"/>
@@ -1336,26 +1345,20 @@
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="2">
-        <f>AVERAGE(C12:C17)</f>
-        <v>18.8333333333333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="3">
-        <v>3</v>
-      </c>
-      <c r="C23" s="3">
-        <v>16</v>
+      <c r="C21" s="2">
+        <f>AVERAGE(C12:C18)</f>
+        <v>18.8571428571429</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1363,7 +1366,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
         <v>17</v>
@@ -1377,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1385,16 +1388,22 @@
         <v>20</v>
       </c>
       <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3">
         <v>6</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C27" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
@@ -1402,27 +1411,32 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C23:C26)</f>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C30" s="3">
+        <f>AVERAGE(C24:C27)</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C6,C12:C17,C23:C26)</f>
-        <v>18.1333333333333</v>
+      <c r="B33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C6,C12:C18,C24:C27)</f>
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>
@@ -1435,6 +1449,283 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>16.2</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <f>AVERAGE(C12:C16)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="3">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C22:C26)</f>
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C6,C12:C16,C22:C26)</f>
+        <v>15.3333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
@@ -1460,7 +1751,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1471,18 +1762,18 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1493,18 +1784,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -1532,24 +1823,24 @@
       </c>
       <c r="C9" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>16.8</v>
+        <v>16.2</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
@@ -1560,7 +1851,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
@@ -1571,76 +1862,76 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2">
         <v>6</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C18" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2">
-        <f>AVERAGE(C12:C16)</f>
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="3">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="3">
-        <v>4</v>
-      </c>
-      <c r="C23" s="3">
-        <v>15</v>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2">
+        <f>AVERAGE(C12:C18)</f>
+        <v>14.7142857142857</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
         <v>14</v>
@@ -1648,30 +1939,36 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
@@ -1679,304 +1976,32 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C22:C26)</f>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C6,C12:C16,C22:C26)</f>
-        <v>15.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>15.6</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2">
-        <f>AVERAGE(C12:C15)</f>
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="3">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="3">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="3">
-        <v>4</v>
-      </c>
-      <c r="C23" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="3">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="3">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="3">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C21:C26)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C6,C12:C15,C21:C26)</f>
-        <v>14.9333333333333</v>
+      <c r="C30" s="3">
+        <f>AVERAGE(C24:C27)</f>
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C6,C12:C18,C24:C27)</f>
+        <v>14.9375</v>
       </c>
     </row>
   </sheetData>
